--- a/excel_data/2019_data/Win19_wk2_S.xlsx
+++ b/excel_data/2019_data/Win19_wk2_S.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE1877-C216-4F6F-B680-1C4B2B1B654E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A7E952-C89E-42AD-9E49-E860691DC8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
   </bookViews>
@@ -246,64 +246,64 @@
     </r>
   </si>
   <si>
-    <t>Mon08</t>
-  </si>
-  <si>
-    <t>Mon010</t>
-  </si>
-  <si>
-    <t>Mon012</t>
-  </si>
-  <si>
-    <t>Mon02</t>
-  </si>
-  <si>
-    <t>Tue08</t>
-  </si>
-  <si>
-    <t>Tue010</t>
-  </si>
-  <si>
-    <t>Tue012</t>
-  </si>
-  <si>
-    <t>Tue02</t>
-  </si>
-  <si>
-    <t>Wed08</t>
-  </si>
-  <si>
-    <t>Wed010</t>
-  </si>
-  <si>
-    <t>Wed012</t>
-  </si>
-  <si>
-    <t>Wed02</t>
-  </si>
-  <si>
-    <t>Thu08</t>
-  </si>
-  <si>
-    <t>Thu010</t>
-  </si>
-  <si>
-    <t>Thu012</t>
-  </si>
-  <si>
-    <t>Thu02</t>
-  </si>
-  <si>
-    <t>Fri08</t>
-  </si>
-  <si>
-    <t>Fri010</t>
-  </si>
-  <si>
-    <t>Fri012</t>
-  </si>
-  <si>
-    <t>Fri02</t>
+    <t>Mon-8</t>
+  </si>
+  <si>
+    <t>Mon-10</t>
+  </si>
+  <si>
+    <t>Mon-12</t>
+  </si>
+  <si>
+    <t>Mon-2</t>
+  </si>
+  <si>
+    <t>Tue-8</t>
+  </si>
+  <si>
+    <t>Tue-10</t>
+  </si>
+  <si>
+    <t>Tue-12</t>
+  </si>
+  <si>
+    <t>Tue-2</t>
+  </si>
+  <si>
+    <t>Wed-8</t>
+  </si>
+  <si>
+    <t>Wed-10</t>
+  </si>
+  <si>
+    <t>Wed-12</t>
+  </si>
+  <si>
+    <t>Wed-2</t>
+  </si>
+  <si>
+    <t>Thu-8</t>
+  </si>
+  <si>
+    <t>Thu-10</t>
+  </si>
+  <si>
+    <t>Thu-12</t>
+  </si>
+  <si>
+    <t>Thu-2</t>
+  </si>
+  <si>
+    <t>Fri-8</t>
+  </si>
+  <si>
+    <t>Fri-10</t>
+  </si>
+  <si>
+    <t>Fri-12</t>
+  </si>
+  <si>
+    <t>Fri-2</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE0CE9-5462-4B04-B2C2-1D902888B2DF}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/excel_data/2019_data/Win19_wk2_S.xlsx
+++ b/excel_data/2019_data/Win19_wk2_S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iaman\Desktop\Projects\Project 2019.9\ECE143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A7E952-C89E-42AD-9E49-E860691DC8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3B4E7F-B0EC-4881-8DC7-89BC0E689214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,11 +310,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -327,6 +327,8 @@
     <font>
       <sz val="7"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="7"/>
@@ -336,11 +338,14 @@
     <font>
       <sz val="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -630,7 +635,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,7 +651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -944,13 +949,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE0CE9-5462-4B04-B2C2-1D902888B2DF}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17.399999999999999">
+    <row r="4" spans="1:23" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="17.399999999999999">
+    <row r="5" spans="1:23" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
@@ -1370,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
@@ -1439,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
@@ -1508,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="26" t="s">
         <v>12</v>
@@ -1577,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
@@ -1646,7 +1651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="26" t="s">
         <v>14</v>
@@ -1715,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="18" t="s">
         <v>15</v>
@@ -1784,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="26" t="s">
         <v>16</v>
@@ -1853,7 +1858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.399999999999999">
+    <row r="14" spans="1:23" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.399999999999999">
+    <row r="15" spans="1:23" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>20</v>
@@ -2065,6 +2070,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_data/2019_data/Win19_wk2_S.xlsx
+++ b/excel_data/2019_data/Win19_wk2_S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A7E952-C89E-42AD-9E49-E860691DC8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B2497A-939E-400E-BC8B-F8995C2B28D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -203,16 +203,6 @@
         <family val="2"/>
       </rPr>
       <t>P701</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Regents Parking Lots</t>
     </r>
   </si>
   <si>
@@ -944,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE0CE9-5462-4B04-B2C2-1D902888B2DF}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -961,64 +951,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>39</v>
-      </c>
-      <c r="W1" s="41" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1853,12 +1843,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.399999999999999">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:23">
+      <c r="A14" s="29"/>
+      <c r="B14" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="C14" s="23">
         <v>578</v>
@@ -1924,12 +1912,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.399999999999999">
-      <c r="A15" s="30" t="s">
-        <v>17</v>
-      </c>
+    <row r="15" spans="1:23">
+      <c r="A15" s="30"/>
       <c r="B15" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11">
         <v>184</v>
@@ -1998,7 +1984,7 @@
     <row r="16" spans="1:23">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="33">
         <v>241</v>

--- a/excel_data/2019_data/Win19_wk2_S.xlsx
+++ b/excel_data/2019_data/Win19_wk2_S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iaman\Desktop\Projects\Project 2019.9\ECE143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF297E2-5EE4-49DD-85F8-14BBF4A3A00D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3B4E7F-B0EC-4881-8DC7-89BC0E689214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -212,6 +212,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Regents Parking Lots</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>P704</t>
     </r>
   </si>
@@ -300,11 +310,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -332,7 +342,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -625,7 +635,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,7 +651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -940,12 +950,12 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D1" sqref="D1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -956,67 +966,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T1" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17.399999999999999">
+    <row r="4" spans="1:23" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="17.399999999999999">
+    <row r="5" spans="1:23" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
@@ -1365,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
@@ -1434,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
@@ -1503,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="26" t="s">
         <v>12</v>
@@ -1572,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
@@ -1641,7 +1651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="26" t="s">
         <v>14</v>
@@ -1710,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="18" t="s">
         <v>15</v>
@@ -1779,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="26" t="s">
         <v>16</v>
@@ -1848,10 +1858,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:23" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="23">
         <v>578</v>
@@ -1917,10 +1929,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:23" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11">
         <v>184</v>
@@ -1986,10 +2000,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="33">
         <v>241</v>

--- a/excel_data/2019_data/Win19_wk2_S.xlsx
+++ b/excel_data/2019_data/Win19_wk2_S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iaman\Desktop\Projects\Project 2019.9\ECE143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3B4E7F-B0EC-4881-8DC7-89BC0E689214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D24DA-40B5-43A1-82B6-4283BB570ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -212,16 +212,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Regents Parking Lots</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>P704</t>
     </r>
   </si>
@@ -310,11 +300,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -342,7 +332,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -635,7 +625,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,7 +641,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -949,13 +939,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE0CE9-5462-4B04-B2C2-1D902888B2DF}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -966,67 +956,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="41" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="17.399999999999999">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="17.399999999999999">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
@@ -1375,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="10"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
@@ -1444,7 +1434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="28"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
@@ -1513,7 +1503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="10"/>
       <c r="B9" s="26" t="s">
         <v>12</v>
@@ -1582,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="28"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
@@ -1651,7 +1641,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="10"/>
       <c r="B11" s="26" t="s">
         <v>14</v>
@@ -1720,7 +1710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="28"/>
       <c r="B12" s="18" t="s">
         <v>15</v>
@@ -1789,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="10"/>
       <c r="B13" s="26" t="s">
         <v>16</v>
@@ -1858,12 +1848,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:23">
+      <c r="A14" s="29"/>
+      <c r="B14" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="C14" s="23">
         <v>578</v>
@@ -1929,12 +1917,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>17</v>
-      </c>
+    <row r="15" spans="1:23">
+      <c r="A15" s="30"/>
       <c r="B15" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11">
         <v>184</v>
@@ -2000,10 +1986,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="33">
         <v>241</v>
